--- a/Upravljanje projektom/Revidirani plan.xlsx
+++ b/Upravljanje projektom/Revidirani plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/pis/Upravljanje projektom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53171ACE-1776-6747-9FD0-4978BE0757D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC28278E-6E9B-5949-BB87-69C2D846FF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12700" yWindow="1780" windowWidth="19480" windowHeight="13460" xr2:uid="{980DF8FA-E5B4-3F40-BAF4-CED660455ED0}"/>
+    <workbookView xWindow="6120" yWindow="1440" windowWidth="19480" windowHeight="13460" xr2:uid="{980DF8FA-E5B4-3F40-BAF4-CED660455ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,43 +209,60 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>4053</xdr:rowOff>
+      <xdr:colOff>485059</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7D24BA-7212-8346-977C-7DA5C9C57A66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF9D39D-332E-B744-A1D8-22EB5662F9F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9512300" y="660400"/>
-          <a:ext cx="7772400" cy="4299882"/>
+          <a:off x="9931400" y="177800"/>
+          <a:ext cx="8003459" cy="4368800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -552,15 +569,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEF9099-F076-C246-AFB7-2F3DB969E7D8}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
